--- a/test.xlsx
+++ b/test.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DNA" r:id="rId3" sheetId="1"/>
+    <sheet name="CDS" r:id="rId3" sheetId="1"/>
     <sheet name="RNA" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
